--- a/data/trans_orig/IQ17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ17A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4B085D-7B57-4EC1-8C87-DA22ABFC2813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48867869-B274-4476-9A07-9E6BB86213B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29A7E1D8-462D-48B1-AF5E-B5F7183E6F91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5CAF952-EB5E-41F2-B2D4-13EC8898B03A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="483">
   <si>
     <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2007 (Tasa respuesta: 20,82%)</t>
   </si>
@@ -89,1351 +89,1363 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>19,23%</t>
+    <t>16,51%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>6,43%</t>
+    <t>6,85%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>23,33%</t>
+    <t>20,11%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2016 (Tasa respuesta: 20,46%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2015 (Tasa respuesta: 20,46%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>9,86%</t>
   </si>
   <si>
     <t>5,65%</t>
@@ -1442,43 +1454,40 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E75ED0-4113-43A8-8A4F-384224924EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A6CDC-3557-4519-B980-203FE8019299}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2685,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2709,13 +2718,13 @@
         <v>673</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2739,13 @@
         <v>4163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2760,13 +2769,13 @@
         <v>4163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2790,13 @@
         <v>8233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2796,13 +2805,13 @@
         <v>8248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -2811,13 +2820,13 @@
         <v>16482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2841,13 @@
         <v>92205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -2847,13 +2856,13 @@
         <v>70041</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7">
         <v>244</v>
@@ -2862,13 +2871,13 @@
         <v>162245</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2933,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -2942,7 +2951,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2957,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2972,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3008,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3023,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3059,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3074,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,7 +3104,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3110,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3125,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3149,13 @@
         <v>638</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3161,7 +3170,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3170,13 +3179,13 @@
         <v>638</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3206,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3212,7 +3221,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3227,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3257,13 +3266,13 @@
         <v>527</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3272,13 +3281,13 @@
         <v>527</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,10 +3302,10 @@
         <v>33966</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>29</v>
@@ -3308,10 +3317,10 @@
         <v>31280</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>29</v>
@@ -3323,10 +3332,10 @@
         <v>65247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>29</v>
@@ -3403,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3418,7 +3427,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3433,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3469,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3484,7 +3493,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3508,13 @@
         <v>695</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3514,13 +3523,13 @@
         <v>448</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -3529,13 +3538,13 @@
         <v>1143</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3571,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3586,7 +3595,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3610,13 @@
         <v>1310</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3616,13 +3625,13 @@
         <v>641</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3631,13 +3640,13 @@
         <v>1951</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3661,13 @@
         <v>4163</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3673,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -3682,13 +3691,13 @@
         <v>4163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3712,13 @@
         <v>9621</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -3718,13 +3727,13 @@
         <v>10763</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -3733,13 +3742,13 @@
         <v>20384</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3763,13 @@
         <v>145405</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H38" s="7">
         <v>178</v>
@@ -3769,13 +3778,13 @@
         <v>118670</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M38" s="7">
         <v>396</v>
@@ -3784,13 +3793,13 @@
         <v>264076</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3855,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD0A27-703E-4FE6-BA3A-B17EFFD3F8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEC9-2C04-40DA-92F2-5B57B8A74A4D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3995,7 +4004,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4010,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4025,7 +4034,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4061,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4076,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4112,7 +4121,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4127,7 +4136,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4163,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4178,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,7 +4208,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4214,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4229,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4253,13 @@
         <v>654</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4259,13 +4268,13 @@
         <v>1224</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4274,13 +4283,13 @@
         <v>1878</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4304,13 @@
         <v>5121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4310,13 +4319,13 @@
         <v>2102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4325,13 +4334,13 @@
         <v>7223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4355,13 @@
         <v>11576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4361,13 +4370,13 @@
         <v>15288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -4376,13 +4385,13 @@
         <v>26866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4471,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4486,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4522,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4537,7 +4546,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4567,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4567,13 +4576,13 @@
         <v>480</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -4582,13 +4591,13 @@
         <v>480</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4618,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4624,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4639,7 +4648,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4663,13 @@
         <v>1321</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4675,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4684,13 +4693,13 @@
         <v>1321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4714,13 @@
         <v>3173</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4720,13 +4729,13 @@
         <v>1597</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4735,13 +4744,13 @@
         <v>4770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4765,13 @@
         <v>14284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4771,13 +4780,13 @@
         <v>7930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -4786,13 +4795,13 @@
         <v>22213</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4816,13 @@
         <v>101965</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -4822,13 +4831,13 @@
         <v>89256</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>277</v>
@@ -4837,13 +4846,13 @@
         <v>191221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -4917,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4932,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4947,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,7 +4977,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4983,7 +4992,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4998,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5034,7 +5043,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5049,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,7 +5079,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5085,7 +5094,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5100,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5130,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5136,7 +5145,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5151,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5175,13 @@
         <v>747</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -5181,13 +5190,13 @@
         <v>3260</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5196,13 +5205,13 @@
         <v>4007</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5226,13 @@
         <v>5231</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5232,13 +5241,13 @@
         <v>5163</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -5247,13 +5256,13 @@
         <v>10394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5277,13 @@
         <v>25159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -5283,13 +5292,13 @@
         <v>34573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -5298,13 +5307,13 @@
         <v>59733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,7 +5387,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5393,7 +5402,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5408,7 +5417,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5438,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5444,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5459,7 +5468,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5489,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -5489,13 +5498,13 @@
         <v>480</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -5504,13 +5513,13 @@
         <v>480</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5540,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5546,7 +5555,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5561,7 +5570,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5585,13 @@
         <v>1321</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5597,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -5606,13 +5615,13 @@
         <v>1321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5636,13 @@
         <v>4574</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -5642,13 +5651,13 @@
         <v>6080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -5657,13 +5666,13 @@
         <v>10655</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5687,13 @@
         <v>24635</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -5693,13 +5702,13 @@
         <v>15194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>57</v>
@@ -5708,13 +5717,13 @@
         <v>39830</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5738,13 @@
         <v>138701</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>201</v>
@@ -5744,13 +5753,13 @@
         <v>139118</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>400</v>
@@ -5759,13 +5768,13 @@
         <v>277820</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,7 +5830,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5840,7 +5849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1E896-3C34-4F2C-8CA1-C7537110CDE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4150260D-270E-4451-963D-62C55D9F886A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5857,7 +5866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5970,7 +5979,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5985,7 +5994,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6000,7 +6009,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6030,13 +6039,13 @@
         <v>586</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6045,13 +6054,13 @@
         <v>586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,7 +6081,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6087,7 +6096,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6102,7 +6111,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6138,7 +6147,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6153,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6189,7 +6198,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6198,13 +6207,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6234,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6240,7 +6249,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6255,7 +6264,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6279,13 @@
         <v>1294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6285,13 +6294,13 @@
         <v>2197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6300,13 +6309,13 @@
         <v>3491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,10 +6330,10 @@
         <v>10820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -6336,13 +6345,13 @@
         <v>15829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -6351,13 +6360,13 @@
         <v>26649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,7 +6440,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6446,7 +6455,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6461,7 +6470,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6491,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6497,7 +6506,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6512,7 +6521,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6542,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6542,13 +6551,13 @@
         <v>657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6557,13 +6566,13 @@
         <v>657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6593,13 +6602,13 @@
         <v>536</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6608,13 +6617,13 @@
         <v>536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6638,13 @@
         <v>652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6650,7 +6659,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6659,13 +6668,13 @@
         <v>652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6689,13 @@
         <v>764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6695,13 +6704,13 @@
         <v>1452</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6710,13 +6719,13 @@
         <v>2216</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6740,13 @@
         <v>7377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6746,13 +6755,13 @@
         <v>9563</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -6761,13 +6770,13 @@
         <v>16940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6791,13 @@
         <v>87223</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -6797,13 +6806,13 @@
         <v>80621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -6812,13 +6821,13 @@
         <v>167844</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,7 +6883,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -6892,7 +6901,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6907,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6922,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6958,7 +6967,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6973,7 +6982,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,7 +7003,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7009,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7024,7 +7033,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7060,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7075,7 +7084,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,7 +7105,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7111,7 +7120,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7126,7 +7135,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,7 +7156,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7162,7 +7171,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7177,7 +7186,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7201,13 @@
         <v>4391</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7207,13 +7216,13 @@
         <v>2907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -7222,13 +7231,13 @@
         <v>7298</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7252,13 @@
         <v>32944</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -7258,13 +7267,13 @@
         <v>28200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -7273,13 +7282,13 @@
         <v>61144</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7368,7 +7377,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7383,7 +7392,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7413,13 +7422,13 @@
         <v>586</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7428,13 +7437,13 @@
         <v>586</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,7 +7464,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -7464,13 +7473,13 @@
         <v>657</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -7479,13 +7488,13 @@
         <v>657</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,7 +7515,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7515,13 +7524,13 @@
         <v>536</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7530,13 +7539,13 @@
         <v>536</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7560,13 @@
         <v>652</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7566,13 +7575,13 @@
         <v>617</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -7581,13 +7590,13 @@
         <v>1270</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7611,13 @@
         <v>764</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -7617,13 +7626,13 @@
         <v>1452</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -7632,13 +7641,13 @@
         <v>2216</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>171</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7662,13 @@
         <v>13062</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -7668,13 +7677,13 @@
         <v>14666</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -7683,13 +7692,13 @@
         <v>27729</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7713,13 @@
         <v>130988</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H38" s="7">
         <v>194</v>
@@ -7719,13 +7728,13 @@
         <v>124650</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M38" s="7">
         <v>384</v>
@@ -7734,13 +7743,13 @@
         <v>255637</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,7 +7805,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +7824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF235BD-FF9D-4176-908C-7246B9C2A425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6462E79-50D5-46E1-B640-000021AADC1E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7832,7 +7841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7945,7 +7954,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7960,7 +7969,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7975,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,7 +8005,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8011,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8026,7 +8035,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8056,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8062,7 +8071,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8077,7 +8086,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,7 +8107,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8113,7 +8122,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8128,7 +8137,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,7 +8158,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8164,7 +8173,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8179,7 +8188,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,13 +8203,13 @@
         <v>491</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8215,7 +8224,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -8224,13 +8233,13 @@
         <v>491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>377</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,7 +8260,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8260,13 +8269,13 @@
         <v>822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -8275,13 +8284,13 @@
         <v>822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8296,10 +8305,10 @@
         <v>8365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -8311,10 +8320,10 @@
         <v>5752</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -8326,10 +8335,10 @@
         <v>14118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>29</v>
@@ -8406,7 +8415,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8421,7 +8430,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8436,7 +8445,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8457,7 +8466,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8472,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8487,7 +8496,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8508,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8523,7 +8532,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8538,7 +8547,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8559,7 +8568,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8568,13 +8577,13 @@
         <v>733</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8583,13 +8592,13 @@
         <v>733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8604,13 +8613,13 @@
         <v>944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -8619,13 +8628,13 @@
         <v>777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -8634,13 +8643,13 @@
         <v>1721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8655,13 +8664,13 @@
         <v>933</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8676,7 +8685,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -8685,13 +8694,13 @@
         <v>933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8706,13 +8715,13 @@
         <v>5272</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -8721,13 +8730,13 @@
         <v>3819</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -8736,13 +8745,13 @@
         <v>9091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8757,13 +8766,13 @@
         <v>80833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -8772,13 +8781,13 @@
         <v>60680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
@@ -8787,13 +8796,13 @@
         <v>141512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,7 +8858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -8861,13 +8870,13 @@
         <v>838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8882,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -8891,13 +8900,13 @@
         <v>838</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8918,7 +8927,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8933,7 +8942,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8948,7 +8957,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8963,13 +8972,13 @@
         <v>1113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8984,7 +8993,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -8993,13 +9002,13 @@
         <v>1113</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9014,13 +9023,13 @@
         <v>565</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9035,7 +9044,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -9044,13 +9053,13 @@
         <v>565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9071,7 +9080,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9086,7 +9095,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9101,7 +9110,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9116,13 +9125,13 @@
         <v>504</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -9137,7 +9146,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -9146,13 +9155,13 @@
         <v>504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9167,13 +9176,13 @@
         <v>1480</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -9182,13 +9191,13 @@
         <v>1000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -9197,13 +9206,13 @@
         <v>2480</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9218,13 +9227,13 @@
         <v>25088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -9233,10 +9242,10 @@
         <v>26340</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>219</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>29</v>
@@ -9248,13 +9257,13 @@
         <v>51427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9328,7 +9337,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>113</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9343,7 +9352,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -9352,13 +9361,13 @@
         <v>838</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9379,7 +9388,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9394,7 +9403,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9409,7 +9418,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9424,13 +9433,13 @@
         <v>1113</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9445,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -9454,13 +9463,13 @@
         <v>1113</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9475,13 +9484,13 @@
         <v>565</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>453</v>
+        <v>54</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9490,13 +9499,13 @@
         <v>733</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>172</v>
+        <v>457</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9511,7 +9520,7 @@
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9526,13 +9535,13 @@
         <v>944</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9541,13 +9550,13 @@
         <v>777</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9556,13 +9565,13 @@
         <v>1721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>168</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,13 +9586,13 @@
         <v>1929</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9598,7 +9607,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -9607,13 +9616,13 @@
         <v>1929</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,13 +9637,13 @@
         <v>6751</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -9643,13 +9652,13 @@
         <v>5641</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -9658,13 +9667,13 @@
         <v>12392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>468</v>
+        <v>110</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9679,13 +9688,13 @@
         <v>114285</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H38" s="7">
         <v>142</v>
@@ -9694,13 +9703,13 @@
         <v>92772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M38" s="7">
         <v>312</v>
@@ -9709,13 +9718,13 @@
         <v>207057</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9771,7 +9780,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ17A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48867869-B274-4476-9A07-9E6BB86213B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{902DD4D1-2CFD-44E1-96BB-2331E4344C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5CAF952-EB5E-41F2-B2D4-13EC8898B03A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80A57B9E-2A6F-4A4E-B764-76E1F0CCB9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="471">
   <si>
     <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2007 (Tasa respuesta: 20,82%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,1417 +77,1381 @@
     <t>0%</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
     <t>3,09%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>19,07%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>6,85%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2016 (Tasa respuesta: 20,46%)</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2016 (Tasa respuesta: 20,46%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A6CDC-3557-4519-B980-203FE8019299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9CAB29-B2FD-487D-8D88-9A9E9169F323}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2221,34 +2185,34 @@
         <v>4</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2323,31 +2287,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1388</v>
+        <v>1988</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1988</v>
+        <v>1388</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -2374,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>19233</v>
+        <v>17349</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>27</v>
@@ -2389,10 +2353,10 @@
         <v>29</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>17349</v>
+        <v>19233</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>30</v>
@@ -2425,25 +2389,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>19978</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>31</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>20621</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>30</v>
-      </c>
-      <c r="I12" s="7">
-        <v>19978</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>36</v>
@@ -2583,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>695</v>
+        <v>448</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>41</v>
@@ -2598,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>448</v>
+        <v>695</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>43</v>
@@ -2682,34 +2646,34 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>673</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2733,34 +2697,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4163</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2784,10 +2748,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>8233</v>
+        <v>8248</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>57</v>
@@ -2799,10 +2763,10 @@
         <v>59</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>8248</v>
+        <v>8233</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>60</v>
@@ -2835,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7">
-        <v>92205</v>
+        <v>70041</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>66</v>
@@ -2850,10 +2814,10 @@
         <v>68</v>
       </c>
       <c r="H20" s="7">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="I20" s="7">
-        <v>70041</v>
+        <v>92205</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>69</v>
@@ -2886,25 +2850,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>119</v>
+      </c>
+      <c r="D21" s="7">
+        <v>78737</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7">
         <v>159</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>105969</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="7">
-        <v>119</v>
-      </c>
-      <c r="I21" s="7">
-        <v>78737</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -3143,34 +3107,34 @@
         <v>4</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>638</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3179,13 +3143,13 @@
         <v>638</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,34 +3209,34 @@
         <v>2</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3281,13 +3245,13 @@
         <v>527</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,34 +3260,34 @@
         <v>1</v>
       </c>
       <c r="C29" s="7">
+        <v>47</v>
+      </c>
+      <c r="D29" s="7">
+        <v>31280</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="7">
         <v>50</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>33966</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="7">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7">
-        <v>31280</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -3332,13 +3296,13 @@
         <v>65247</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,25 +3311,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7">
+        <v>31807</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7">
         <v>51</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>34604</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="7">
-        <v>48</v>
-      </c>
-      <c r="I30" s="7">
-        <v>31807</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>36</v>
@@ -3412,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3427,22 +3391,22 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3427,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3478,22 +3442,22 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,31 +3469,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>695</v>
+        <v>448</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>448</v>
+        <v>695</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -3538,13 +3502,13 @@
         <v>1143</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3580,22 +3544,22 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,34 +3568,34 @@
         <v>4</v>
       </c>
       <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>641</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="I35" s="7">
         <v>1310</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="J35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
-        <v>641</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3640,13 +3604,13 @@
         <v>1951</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,34 +3619,34 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="7">
         <v>6</v>
       </c>
-      <c r="D36" s="7">
+      <c r="I36" s="7">
         <v>4163</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="J36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -3691,13 +3655,13 @@
         <v>4163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,34 +3670,34 @@
         <v>2</v>
       </c>
       <c r="C37" s="7">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7">
+        <v>10763</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="7">
         <v>14</v>
       </c>
-      <c r="D37" s="7">
+      <c r="I37" s="7">
         <v>9621</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="7">
-        <v>17</v>
-      </c>
-      <c r="I37" s="7">
-        <v>10763</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -3742,13 +3706,13 @@
         <v>20384</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,34 +3721,34 @@
         <v>1</v>
       </c>
       <c r="C38" s="7">
+        <v>178</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118670</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="7">
         <v>218</v>
       </c>
-      <c r="D38" s="7">
+      <c r="I38" s="7">
         <v>145405</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H38" s="7">
-        <v>178</v>
-      </c>
-      <c r="I38" s="7">
-        <v>118670</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M38" s="7">
         <v>396</v>
@@ -3793,13 +3757,13 @@
         <v>264076</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,25 +3772,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>197</v>
+      </c>
+      <c r="D39" s="7">
+        <v>130522</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="7">
         <v>241</v>
       </c>
-      <c r="D39" s="7">
+      <c r="I39" s="7">
         <v>161194</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="7">
-        <v>197</v>
-      </c>
-      <c r="I39" s="7">
-        <v>130522</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -3855,7 +3819,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEC9-2C04-40DA-92F2-5B57B8A74A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337061C2-66D5-4AA8-96C1-D04898D40502}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4004,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4019,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4034,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4070,7 +4034,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4085,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4121,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4136,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,7 +4121,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4172,7 +4136,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4187,7 +4151,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4223,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4238,7 +4202,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,34 +4211,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1224</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>654</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1224</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4283,13 +4247,13 @@
         <v>1878</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,34 +4262,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2102</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5121</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2102</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4334,13 +4298,13 @@
         <v>7223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,34 +4313,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15288</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>11576</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="7">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15288</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -4385,13 +4349,13 @@
         <v>26866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,25 +4364,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18614</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>26</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>17351</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>36</v>
@@ -4465,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4480,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4495,7 +4459,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4531,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4546,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,34 +4519,34 @@
         <v>6</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -4591,13 +4555,13 @@
         <v>480</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +4582,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4633,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4648,7 +4612,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,34 +4621,34 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1321</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4693,13 +4657,13 @@
         <v>1321</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,34 +4672,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1597</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3173</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1597</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4744,13 +4708,13 @@
         <v>4770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,34 +4723,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7930</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="7">
         <v>21</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>14284</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7930</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -4795,13 +4759,13 @@
         <v>22213</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,34 +4774,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>131</v>
+      </c>
+      <c r="D20" s="7">
+        <v>89256</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="7">
         <v>146</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>101965</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="7">
-        <v>131</v>
-      </c>
-      <c r="I20" s="7">
-        <v>89256</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>277</v>
@@ -4846,13 +4810,13 @@
         <v>191221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,25 +4825,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>145</v>
+      </c>
+      <c r="D21" s="7">
+        <v>99262</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7">
         <v>173</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>120743</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="7">
-        <v>145</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99262</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -4926,7 +4890,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4941,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4956,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4992,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5007,7 +4971,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +4992,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5043,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5058,7 +5022,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,7 +5043,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5094,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5109,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5094,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5145,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5160,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,34 +5133,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3260</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>747</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3260</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5205,13 +5169,13 @@
         <v>4007</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,31 +5187,31 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>5231</v>
+        <v>5163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>5163</v>
+        <v>5231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -5256,13 +5220,13 @@
         <v>10394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,34 +5235,34 @@
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7">
+        <v>34573</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="7">
+        <v>36</v>
+      </c>
+      <c r="I29" s="7">
         <v>25159</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H29" s="7">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7">
-        <v>34573</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -5307,13 +5271,13 @@
         <v>59733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,25 +5286,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42996</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7">
         <v>44</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>31137</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="7">
-        <v>59</v>
-      </c>
-      <c r="I30" s="7">
-        <v>42996</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>36</v>
@@ -5387,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5402,7 +5366,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5417,7 +5381,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5402,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5453,7 +5417,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5468,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,34 +5441,34 @@
         <v>6</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -5513,13 +5477,13 @@
         <v>480</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,7 +5504,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5555,7 +5519,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5570,7 +5534,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,31 +5543,31 @@
         <v>4</v>
       </c>
       <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="I35" s="7">
         <v>1321</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
       <c r="J35" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>224</v>
@@ -5615,13 +5579,13 @@
         <v>1321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,34 +5594,34 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6080</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="7">
         <v>6</v>
       </c>
-      <c r="D36" s="7">
+      <c r="I36" s="7">
         <v>4574</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" s="7">
-        <v>9</v>
-      </c>
-      <c r="I36" s="7">
-        <v>6080</v>
-      </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -5666,13 +5630,13 @@
         <v>10655</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,34 +5645,34 @@
         <v>2</v>
       </c>
       <c r="C37" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D37" s="7">
+        <v>15194</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" s="7">
+        <v>36</v>
+      </c>
+      <c r="I37" s="7">
         <v>24635</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37" s="7">
-        <v>21</v>
-      </c>
-      <c r="I37" s="7">
-        <v>15194</v>
-      </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>57</v>
@@ -5717,13 +5681,13 @@
         <v>39830</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,34 +5696,34 @@
         <v>1</v>
       </c>
       <c r="C38" s="7">
+        <v>201</v>
+      </c>
+      <c r="D38" s="7">
+        <v>139118</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="7">
         <v>199</v>
       </c>
-      <c r="D38" s="7">
+      <c r="I38" s="7">
         <v>138701</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H38" s="7">
-        <v>201</v>
-      </c>
-      <c r="I38" s="7">
-        <v>139118</v>
-      </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>400</v>
@@ -5768,13 +5732,13 @@
         <v>277820</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,25 +5747,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>232</v>
+      </c>
+      <c r="D39" s="7">
+        <v>160873</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="7">
         <v>243</v>
       </c>
-      <c r="D39" s="7">
+      <c r="I39" s="7">
         <v>169232</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="7">
-        <v>232</v>
-      </c>
-      <c r="I39" s="7">
-        <v>160873</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -5830,7 +5794,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5849,7 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4150260D-270E-4451-963D-62C55D9F886A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431FB118-C845-4D36-948F-889B611A3275}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5866,7 +5830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5979,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5994,7 +5958,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6009,7 +5973,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,34 +5982,34 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6054,13 +6018,13 @@
         <v>586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,7 +6045,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6096,7 +6060,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6111,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6096,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6147,7 +6111,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6162,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,34 +6135,34 @@
         <v>4</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6207,13 +6171,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6249,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6264,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,34 +6237,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2197</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1294</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2197</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6309,13 +6273,13 @@
         <v>3491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,34 +6288,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15829</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="7">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>10820</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15829</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -6360,13 +6324,13 @@
         <v>26649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,25 +6339,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7">
+        <v>19229</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>17</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>12114</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7">
-        <v>19229</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>36</v>
@@ -6440,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6455,7 +6419,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6470,7 +6434,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,7 +6455,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6506,7 +6470,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6521,7 +6485,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,34 +6494,34 @@
         <v>6</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6566,13 +6530,13 @@
         <v>657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,34 +6545,34 @@
         <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6617,13 +6581,13 @@
         <v>536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,34 +6596,34 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>652</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6668,13 +6632,13 @@
         <v>652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,34 +6647,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>764</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1452</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6719,13 +6683,13 @@
         <v>2216</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,34 +6698,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9563</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="7">
         <v>12</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>7377</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9563</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -6770,13 +6734,13 @@
         <v>16940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,31 +6752,31 @@
         <v>127</v>
       </c>
       <c r="D20" s="7">
-        <v>87223</v>
+        <v>80621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
       </c>
       <c r="I20" s="7">
-        <v>80621</v>
+        <v>87223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -6821,13 +6785,13 @@
         <v>167844</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,25 +6800,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>146</v>
+      </c>
+      <c r="D21" s="7">
+        <v>92829</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7">
         <v>141</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>96016</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="7">
-        <v>146</v>
-      </c>
-      <c r="I21" s="7">
-        <v>92829</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -6901,7 +6865,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6916,7 +6880,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6931,7 +6895,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6967,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6982,7 +6946,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,7 +6967,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7018,7 +6982,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7033,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7069,7 +7033,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7084,7 +7048,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7120,7 +7084,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7135,7 +7099,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,7 +7120,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7171,7 +7135,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7186,7 +7150,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,34 +7159,34 @@
         <v>2</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2907</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="7">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>4391</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2907</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -7231,13 +7195,13 @@
         <v>7298</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,34 +7210,34 @@
         <v>1</v>
       </c>
       <c r="C29" s="7">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
+        <v>28200</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="7">
         <v>48</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>32944</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H29" s="7">
-        <v>43</v>
-      </c>
-      <c r="I29" s="7">
-        <v>28200</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -7282,13 +7246,13 @@
         <v>61144</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,25 +7261,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7">
+        <v>31107</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7">
         <v>55</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>37335</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="7">
-        <v>47</v>
-      </c>
-      <c r="I30" s="7">
-        <v>31107</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>36</v>
@@ -7362,7 +7326,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7377,7 +7341,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7392,7 +7356,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,34 +7365,34 @@
         <v>7</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>341</v>
+        <v>10</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7437,13 +7401,13 @@
         <v>586</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,34 +7416,34 @@
         <v>6</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -7488,13 +7452,13 @@
         <v>657</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,34 +7467,34 @@
         <v>5</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7539,13 +7503,13 @@
         <v>536</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,31 +7521,31 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -7590,13 +7554,13 @@
         <v>1270</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,34 +7569,34 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="7">
         <v>1</v>
       </c>
-      <c r="D36" s="7">
+      <c r="I36" s="7">
         <v>764</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H36" s="7">
-        <v>2</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1452</v>
-      </c>
       <c r="J36" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -7641,13 +7605,13 @@
         <v>2216</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,34 +7620,34 @@
         <v>2</v>
       </c>
       <c r="C37" s="7">
+        <v>22</v>
+      </c>
+      <c r="D37" s="7">
+        <v>14666</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" s="7">
         <v>21</v>
       </c>
-      <c r="D37" s="7">
+      <c r="I37" s="7">
         <v>13062</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H37" s="7">
-        <v>22</v>
-      </c>
-      <c r="I37" s="7">
-        <v>14666</v>
-      </c>
       <c r="J37" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -7692,13 +7656,13 @@
         <v>27729</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,34 +7671,34 @@
         <v>1</v>
       </c>
       <c r="C38" s="7">
+        <v>194</v>
+      </c>
+      <c r="D38" s="7">
+        <v>124650</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H38" s="7">
         <v>190</v>
       </c>
-      <c r="D38" s="7">
+      <c r="I38" s="7">
         <v>130988</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H38" s="7">
-        <v>194</v>
-      </c>
-      <c r="I38" s="7">
-        <v>124650</v>
-      </c>
       <c r="J38" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M38" s="7">
         <v>384</v>
@@ -7743,13 +7707,13 @@
         <v>255637</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,25 +7722,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>222</v>
+      </c>
+      <c r="D39" s="7">
+        <v>143165</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="7">
         <v>213</v>
       </c>
-      <c r="D39" s="7">
+      <c r="I39" s="7">
         <v>145466</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="7">
-        <v>222</v>
-      </c>
-      <c r="I39" s="7">
-        <v>143165</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -7805,7 +7769,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -7824,7 +7788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6462E79-50D5-46E1-B640-000021AADC1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6313B81-C5FC-4663-9FEB-1DF29489209F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7841,7 +7805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7954,7 +7918,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7969,7 +7933,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7984,7 +7948,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,7 +7969,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8020,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8035,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8071,7 +8035,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8086,7 +8050,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8071,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8122,7 +8086,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8137,7 +8101,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,7 +8122,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8173,7 +8137,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8188,7 +8152,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,49 +8161,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>491</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,49 +8212,49 @@
         <v>2</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,49 +8263,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5730</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="7">
-        <v>8365</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
       <c r="I11" s="7">
-        <v>5752</v>
+        <v>8911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>391</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>14118</v>
+        <v>14641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,25 +8314,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6545</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>13</v>
       </c>
-      <c r="D12" s="7">
-        <v>8856</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
       <c r="I12" s="7">
-        <v>6574</v>
+        <v>9434</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>36</v>
@@ -8383,7 +8347,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>15430</v>
+        <v>15979</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>36</v>
@@ -8415,7 +8379,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8430,7 +8394,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8445,7 +8409,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8430,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8481,7 +8445,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8496,7 +8460,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8532,7 +8496,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8547,7 +8511,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,49 +8520,49 @@
         <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,46 +8574,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>944</v>
+        <v>783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>777</v>
+        <v>1014</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1721</v>
+        <v>1797</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8658,49 +8622,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>933</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>159</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,49 +8673,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3841</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="7">
         <v>8</v>
       </c>
-      <c r="D19" s="7">
-        <v>5272</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
       <c r="I19" s="7">
-        <v>3819</v>
+        <v>5273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>9091</v>
+        <v>9114</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8760,49 +8724,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>90</v>
+      </c>
+      <c r="D20" s="7">
+        <v>60889</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" s="7">
         <v>124</v>
       </c>
-      <c r="D20" s="7">
-        <v>80833</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H20" s="7">
-        <v>90</v>
-      </c>
       <c r="I20" s="7">
-        <v>60680</v>
+        <v>84010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
       </c>
       <c r="N20" s="7">
-        <v>141512</v>
+        <v>144899</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8811,25 +8775,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>98</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66238</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7">
         <v>135</v>
       </c>
-      <c r="D21" s="7">
-        <v>87982</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="7">
-        <v>98</v>
-      </c>
       <c r="I21" s="7">
-        <v>66009</v>
+        <v>91249</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -8844,7 +8808,7 @@
         <v>233</v>
       </c>
       <c r="N21" s="7">
-        <v>153991</v>
+        <v>157487</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -8864,49 +8828,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>838</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>838</v>
+        <v>1045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8942,7 +8906,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8966,49 +8930,49 @@
         <v>6</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>1113</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>1244</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>413</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>196</v>
+        <v>414</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>1113</v>
+        <v>1244</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9017,49 +8981,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>565</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>417</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9080,7 +9044,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9095,7 +9059,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9119,49 +9083,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
-        <v>504</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>421</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9173,46 +9137,46 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1480</v>
+        <v>985</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1000</v>
+        <v>1548</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>2480</v>
+        <v>2533</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>428</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9221,49 +9185,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="7">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <v>26546</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="7">
         <v>34</v>
       </c>
-      <c r="D29" s="7">
-        <v>25088</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H29" s="7">
-        <v>42</v>
-      </c>
       <c r="I29" s="7">
-        <v>26340</v>
+        <v>25967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>29</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
       </c>
       <c r="N29" s="7">
-        <v>51427</v>
+        <v>52514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9272,25 +9236,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7">
+        <v>27531</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7">
         <v>40</v>
       </c>
-      <c r="D30" s="7">
-        <v>29588</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="7">
-        <v>44</v>
-      </c>
       <c r="I30" s="7">
-        <v>27340</v>
+        <v>30909</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>36</v>
@@ -9305,7 +9269,7 @@
         <v>84</v>
       </c>
       <c r="N30" s="7">
-        <v>56928</v>
+        <v>58441</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>36</v>
@@ -9325,49 +9289,49 @@
         <v>10</v>
       </c>
       <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
-        <v>838</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>838</v>
+        <v>1045</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9388,7 +9352,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9403,7 +9367,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9418,7 +9382,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9427,49 +9391,49 @@
         <v>6</v>
       </c>
       <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="7">
-        <v>1113</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1244</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>1113</v>
+        <v>1244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>103</v>
+        <v>445</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9481,46 +9445,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>565</v>
+        <v>725</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>54</v>
+        <v>448</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>733</v>
+        <v>586</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1298</v>
+        <v>1311</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9532,46 +9496,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>944</v>
+        <v>783</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>460</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>427</v>
+        <v>51</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>777</v>
+        <v>1014</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1721</v>
+        <v>1797</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>461</v>
+        <v>349</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9580,49 +9544,49 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="7">
-        <v>1929</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>1929</v>
+        <v>1995</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9631,49 +9595,49 @@
         <v>2</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>6751</v>
+        <v>5641</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="H37" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="7">
-        <v>5641</v>
+        <v>6821</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>470</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
       </c>
       <c r="N37" s="7">
-        <v>12392</v>
+        <v>12462</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9682,49 +9646,49 @@
         <v>1</v>
       </c>
       <c r="C38" s="7">
+        <v>142</v>
+      </c>
+      <c r="D38" s="7">
+        <v>93165</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H38" s="7">
         <v>170</v>
       </c>
-      <c r="D38" s="7">
-        <v>114285</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H38" s="7">
-        <v>142</v>
-      </c>
       <c r="I38" s="7">
-        <v>92772</v>
+        <v>118888</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>479</v>
+        <v>124</v>
       </c>
       <c r="M38" s="7">
         <v>312</v>
       </c>
       <c r="N38" s="7">
-        <v>207057</v>
+        <v>212053</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9733,25 +9697,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>153</v>
+      </c>
+      <c r="D39" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="7">
         <v>188</v>
       </c>
-      <c r="D39" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="7">
-        <v>153</v>
-      </c>
       <c r="I39" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -9766,7 +9730,7 @@
         <v>341</v>
       </c>
       <c r="N39" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -9780,7 +9744,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
